--- a/data/trans_orig/P1801_2016_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1801_2016_2023-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>110963</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92190</v>
+        <v>92762</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129398</v>
+        <v>130798</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.264536740170492</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2197804852242614</v>
+        <v>0.2211448341813733</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3084841801436572</v>
+        <v>0.3118230104768887</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>165</v>
@@ -763,19 +763,19 @@
         <v>161829</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142860</v>
+        <v>143737</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>181345</v>
+        <v>179998</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4089121794230772</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3609802814102168</v>
+        <v>0.3631961090188795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4582258022587952</v>
+        <v>0.4548216777138371</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>267</v>
@@ -784,19 +784,19 @@
         <v>272792</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>247475</v>
+        <v>245296</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>299276</v>
+        <v>298351</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3346251119751304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3035691440824607</v>
+        <v>0.3008957855841859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3671119818826349</v>
+        <v>0.3659773420495835</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>308500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>290065</v>
+        <v>288665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>327273</v>
+        <v>326701</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.735463259829508</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6915158198563427</v>
+        <v>0.6881769895231112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7802195147757386</v>
+        <v>0.7788551658186267</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -834,19 +834,19 @@
         <v>233926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>214410</v>
+        <v>215757</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>252895</v>
+        <v>252018</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5910878205769228</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5417741977412051</v>
+        <v>0.5451783222861628</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6390197185897832</v>
+        <v>0.6368038909811201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>530</v>
@@ -855,19 +855,19 @@
         <v>542426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>515942</v>
+        <v>516867</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>567743</v>
+        <v>569922</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6653748880248695</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6328880181173652</v>
+        <v>0.6340226579504166</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6964308559175393</v>
+        <v>0.6991042144158142</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>178919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159492</v>
+        <v>156929</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>203201</v>
+        <v>202196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3029980266073674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2700990573270337</v>
+        <v>0.2657586600840569</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.344118974437524</v>
+        <v>0.3424168627695972</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>281</v>
@@ -980,19 +980,19 @@
         <v>277686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>254398</v>
+        <v>255755</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>302784</v>
+        <v>301175</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4927502037054306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4514252876764704</v>
+        <v>0.453833040644264</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5372853258734163</v>
+        <v>0.5344299527813986</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>452</v>
@@ -1001,19 +1001,19 @@
         <v>456605</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>426642</v>
+        <v>420566</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>493707</v>
+        <v>493908</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3956582861324495</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3696946189747427</v>
+        <v>0.3644290678067875</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4278077553959381</v>
+        <v>0.4279818614501695</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>411577</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>387295</v>
+        <v>388300</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>431004</v>
+        <v>433567</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6970019733926327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.655881025562476</v>
+        <v>0.657583137230403</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7299009426729665</v>
+        <v>0.7342413399159431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>298</v>
@@ -1051,19 +1051,19 @@
         <v>285858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>260760</v>
+        <v>262369</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>309146</v>
+        <v>307789</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5072497962945693</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4627146741265837</v>
+        <v>0.4655700472186014</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5485747123235296</v>
+        <v>0.5461669593557361</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>694</v>
@@ -1072,19 +1072,19 @@
         <v>697435</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>660333</v>
+        <v>660132</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>727398</v>
+        <v>733474</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6043417138675505</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5721922446040618</v>
+        <v>0.5720181385498305</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6303053810252572</v>
+        <v>0.6355709321932126</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>280302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>254940</v>
+        <v>255678</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>305150</v>
+        <v>307831</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4189263100455345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3810209825637523</v>
+        <v>0.3821246058487051</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4560618162365189</v>
+        <v>0.4600700412244346</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>342</v>
@@ -1197,19 +1197,19 @@
         <v>344158</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>318343</v>
+        <v>317670</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>367852</v>
+        <v>367157</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5203592135678337</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4813277630367436</v>
+        <v>0.4803092154923028</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5561838551579041</v>
+        <v>0.5551326083845028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>610</v>
@@ -1218,19 +1218,19 @@
         <v>624461</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>589368</v>
+        <v>587414</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>659355</v>
+        <v>661802</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4693488499720183</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4429730547790617</v>
+        <v>0.4415040209887358</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4955754854745029</v>
+        <v>0.4974144774789646</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>388795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>363947</v>
+        <v>361266</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>414157</v>
+        <v>413419</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5810736899544655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.543938183763481</v>
+        <v>0.5399299587755654</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6189790174362476</v>
+        <v>0.6178753941512948</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>323</v>
@@ -1268,19 +1268,19 @@
         <v>317228</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>293534</v>
+        <v>294229</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>343043</v>
+        <v>343716</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4796407864321664</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4438161448420961</v>
+        <v>0.4448673916154972</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5186722369632566</v>
+        <v>0.5196907845076973</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>693</v>
@@ -1289,19 +1289,19 @@
         <v>706022</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>671128</v>
+        <v>668681</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>741115</v>
+        <v>743069</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5306511500279818</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5044245145254971</v>
+        <v>0.5025855225210354</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5570269452209379</v>
+        <v>0.5584959790112642</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>311066</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>285086</v>
+        <v>283358</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>337743</v>
+        <v>337511</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4814912759208845</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4412761448017974</v>
+        <v>0.4386021791341533</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5227838816692219</v>
+        <v>0.5224240000735099</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>316</v>
@@ -1414,19 +1414,19 @@
         <v>337702</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>310448</v>
+        <v>311369</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>365760</v>
+        <v>362816</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5202803012785986</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4782909593515773</v>
+        <v>0.4797101614713338</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.563507552683999</v>
+        <v>0.5589716670400248</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>597</v>
@@ -1435,19 +1435,19 @@
         <v>648768</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>612237</v>
+        <v>612912</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>684774</v>
+        <v>685658</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5009311425249715</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4727239231142654</v>
+        <v>0.4732458111213684</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5287319079027267</v>
+        <v>0.5294146310815999</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>334982</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>308305</v>
+        <v>308537</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360962</v>
+        <v>362690</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5185087240791155</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4772161183307781</v>
+        <v>0.4775759999264899</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5587238551982026</v>
+        <v>0.5613978208658467</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -1485,19 +1485,19 @@
         <v>311375</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>283317</v>
+        <v>286261</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>338629</v>
+        <v>337708</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4797196987214015</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.436492447316001</v>
+        <v>0.4410283329599753</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5217090406484227</v>
+        <v>0.5202898385286667</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>587</v>
@@ -1506,19 +1506,19 @@
         <v>646357</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>610351</v>
+        <v>609467</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>682888</v>
+        <v>682213</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4990688574750284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4712680920972732</v>
+        <v>0.4705853689184001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5272760768857344</v>
+        <v>0.5267541888786317</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>277033</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>252455</v>
+        <v>255456</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>297743</v>
+        <v>300514</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.579666243377512</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5282389787616434</v>
+        <v>0.5345185026521484</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6229992305933248</v>
+        <v>0.6287973085335515</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>289</v>
@@ -1631,19 +1631,19 @@
         <v>329213</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>305675</v>
+        <v>305891</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>352362</v>
+        <v>351110</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6626017447334633</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6152277971221806</v>
+        <v>0.6156609471183971</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7091933011107187</v>
+        <v>0.7066729201322133</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>535</v>
@@ -1652,19 +1652,19 @@
         <v>606246</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>569630</v>
+        <v>575129</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>636129</v>
+        <v>638828</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6219393414965487</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5843755717548649</v>
+        <v>0.5900169820967863</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6525964401457186</v>
+        <v>0.6553650006825229</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>200885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>180175</v>
+        <v>177404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>225463</v>
+        <v>222462</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.420333756622488</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3770007694066752</v>
+        <v>0.3712026914664486</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4717610212383567</v>
+        <v>0.4654814973478517</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>144</v>
@@ -1702,19 +1702,19 @@
         <v>167636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>144487</v>
+        <v>145739</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191174</v>
+        <v>190958</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3373982552665367</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2908066988892813</v>
+        <v>0.2933270798677867</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3847722028778194</v>
+        <v>0.3843390528816029</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>322</v>
@@ -1723,19 +1723,19 @@
         <v>368521</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>338638</v>
+        <v>335939</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>405137</v>
+        <v>399638</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3780606585034513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3474035598542814</v>
+        <v>0.3446349993174771</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4156244282451352</v>
+        <v>0.4099830179032137</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>226614</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>208019</v>
+        <v>208045</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>243000</v>
+        <v>242862</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6778149184362613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6221962530651793</v>
+        <v>0.6222746062561957</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7268260235760725</v>
+        <v>0.7264143208141033</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>268</v>
@@ -1848,19 +1848,19 @@
         <v>286171</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>267974</v>
+        <v>266494</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>301225</v>
+        <v>302161</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7575419020416313</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7093715666473339</v>
+        <v>0.7054558021160315</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7973947895976472</v>
+        <v>0.7998707408915687</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>491</v>
@@ -1869,19 +1869,19 @@
         <v>512784</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>487927</v>
+        <v>486665</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>538655</v>
+        <v>534071</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7201097692680297</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6852028257162753</v>
+        <v>0.6834298598884488</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7564404730006211</v>
+        <v>0.7500023397395964</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>107716</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91330</v>
+        <v>91468</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126311</v>
+        <v>126285</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3221850815637387</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2731739764239277</v>
+        <v>0.2735856791858968</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3778037469348207</v>
+        <v>0.3777253937438044</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>86</v>
@@ -1919,19 +1919,19 @@
         <v>91591</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76537</v>
+        <v>75601</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109788</v>
+        <v>111268</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2424580979583687</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2026052104023528</v>
+        <v>0.2001292591084316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2906284333526661</v>
+        <v>0.2945441978839684</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>188</v>
@@ -1940,19 +1940,19 @@
         <v>199308</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>173437</v>
+        <v>178021</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>224165</v>
+        <v>225427</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2798902307319703</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2435595269993794</v>
+        <v>0.2499976602604036</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3147971742837248</v>
+        <v>0.316570140111551</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>193853</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>180074</v>
+        <v>182225</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>206307</v>
+        <v>206098</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7542966250150632</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7006821716716916</v>
+        <v>0.7090540125363085</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8027571359692658</v>
+        <v>0.8019426750028801</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>217</v>
@@ -2065,19 +2065,19 @@
         <v>288005</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>267414</v>
+        <v>265821</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>307697</v>
+        <v>305412</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7197072422090371</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6682533899539853</v>
+        <v>0.6642715310031136</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7689165337723062</v>
+        <v>0.7632070596871687</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>445</v>
@@ -2086,19 +2086,19 @@
         <v>481857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>454759</v>
+        <v>456155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>504901</v>
+        <v>504362</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7332340964675688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6919989103098245</v>
+        <v>0.6941240775628764</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7682990602582671</v>
+        <v>0.7674785096209277</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>63145</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>50691</v>
+        <v>50900</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>76924</v>
+        <v>74773</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2457033749849367</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1972428640307343</v>
+        <v>0.1980573249971199</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2993178283283084</v>
+        <v>0.2909459874636915</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -2136,19 +2136,19 @@
         <v>112164</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>92472</v>
+        <v>94757</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>132755</v>
+        <v>134348</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2802927577909629</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2310834662276938</v>
+        <v>0.236792940312831</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3317466100460143</v>
+        <v>0.3357284689968861</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>158</v>
@@ -2157,19 +2157,19 @@
         <v>175310</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>152266</v>
+        <v>152805</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>202408</v>
+        <v>201012</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2667659035324312</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2317009397417329</v>
+        <v>0.2325214903790723</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3080010896901754</v>
+        <v>0.3058759224371237</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>1578751</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1519174</v>
+        <v>1520781</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1632380</v>
+        <v>1642791</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4651113728299096</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4475595343901225</v>
+        <v>0.4480329564789878</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4809109046290754</v>
+        <v>0.4839781006018267</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1878</v>
@@ -2282,19 +2282,19 @@
         <v>2024764</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1961045</v>
+        <v>1965910</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2085275</v>
+        <v>2082902</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5712342602635669</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5532577037495738</v>
+        <v>0.5546300577004409</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5883057871641788</v>
+        <v>0.5876364796677144</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3397</v>
@@ -2303,19 +2303,19 @@
         <v>3603515</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3525935</v>
+        <v>3518535</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3683798</v>
+        <v>3682806</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5193213263810103</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5081409029750081</v>
+        <v>0.507074423162391</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5308913670540194</v>
+        <v>0.5307484382959128</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>1815599</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1761970</v>
+        <v>1751559</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1875176</v>
+        <v>1873569</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5348886271700904</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5190890953709245</v>
+        <v>0.5160218993981732</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5524404656098776</v>
+        <v>0.5519670435210122</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1460</v>
@@ -2353,19 +2353,19 @@
         <v>1519778</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1459267</v>
+        <v>1461640</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1583497</v>
+        <v>1578632</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.428765739736433</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4116942128358212</v>
+        <v>0.4123635203322856</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4467422962504261</v>
+        <v>0.4453699422995591</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3172</v>
@@ -2374,19 +2374,19 @@
         <v>3335377</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3255094</v>
+        <v>3256086</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3412957</v>
+        <v>3420357</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4806786736189897</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4691086329459807</v>
+        <v>0.4692515617040873</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4918590970249918</v>
+        <v>0.4929255768376091</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>76541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54509</v>
+        <v>52867</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104565</v>
+        <v>104216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1876963002205423</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1336680070417587</v>
+        <v>0.1296414965284798</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2564163297584403</v>
+        <v>0.2555607277756282</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -2742,19 +2742,19 @@
         <v>146401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>120177</v>
+        <v>122464</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>172284</v>
+        <v>173944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4057142719754298</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3330406286832597</v>
+        <v>0.3393789397580864</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4774432795339433</v>
+        <v>0.4820431866047329</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>114</v>
@@ -2763,19 +2763,19 @@
         <v>222942</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>187242</v>
+        <v>187947</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>262229</v>
+        <v>260715</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2900473525588092</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2436017193562653</v>
+        <v>0.2445189051011233</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3411595945403349</v>
+        <v>0.3391903380149893</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>331252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>303228</v>
+        <v>303577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>353284</v>
+        <v>354926</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8123036997794578</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.74358367024156</v>
+        <v>0.7444392722243723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8663319929582416</v>
+        <v>0.8703585034715207</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>124</v>
@@ -2813,19 +2813,19 @@
         <v>214446</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>188563</v>
+        <v>186903</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240670</v>
+        <v>238383</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5942857280245701</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5225567204660563</v>
+        <v>0.5179568133952671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6669593713167404</v>
+        <v>0.6606210602419137</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>264</v>
@@ -2834,19 +2834,19 @@
         <v>545698</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>506411</v>
+        <v>507925</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>581398</v>
+        <v>580693</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7099526474411908</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.658840405459665</v>
+        <v>0.6608096619850109</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7563982806437347</v>
+        <v>0.7554810948988767</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>162004</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>137002</v>
+        <v>135913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>190184</v>
+        <v>187933</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3397092371897144</v>
+        <v>0.3397092371897145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2872826625947763</v>
+        <v>0.284999397924859</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3988014796173195</v>
+        <v>0.3940796682805622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>198</v>
@@ -2959,19 +2959,19 @@
         <v>208576</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187175</v>
+        <v>187451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>231909</v>
+        <v>231869</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4169900405098513</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3742046781243641</v>
+        <v>0.374756737088869</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4636371726662192</v>
+        <v>0.4635591098609618</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>301</v>
@@ -2980,19 +2980,19 @@
         <v>370580</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>334746</v>
+        <v>335720</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>407072</v>
+        <v>407848</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3792712355168921</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3425971274480908</v>
+        <v>0.3435936403527214</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4166187514245152</v>
+        <v>0.4174133926289944</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>314886</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>286706</v>
+        <v>288957</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>339888</v>
+        <v>340977</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6602907628102855</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6011985203826805</v>
+        <v>0.6059203317194376</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.712717337405224</v>
+        <v>0.7150006020751409</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>261</v>
@@ -3030,19 +3030,19 @@
         <v>291618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>268285</v>
+        <v>268325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>313019</v>
+        <v>312743</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5830099594901487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5363628273337807</v>
+        <v>0.5364408901390382</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6257953218756359</v>
+        <v>0.6252432629111309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>460</v>
@@ -3051,19 +3051,19 @@
         <v>606504</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>570012</v>
+        <v>569236</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>642338</v>
+        <v>641364</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6207287644831079</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5833812485754848</v>
+        <v>0.5825866073710056</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6574028725519093</v>
+        <v>0.6564063596472789</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>255022</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>229259</v>
+        <v>230718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>282931</v>
+        <v>279631</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4114860170114086</v>
+        <v>0.4114860170114087</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3699170457537648</v>
+        <v>0.3722713163112343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4565187048022577</v>
+        <v>0.451193883466716</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>419</v>
@@ -3176,19 +3176,19 @@
         <v>297277</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>276400</v>
+        <v>274111</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>317672</v>
+        <v>316413</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4783395133507077</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4447478874854393</v>
+        <v>0.4410642915316841</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5111572604706721</v>
+        <v>0.5091319460111087</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>654</v>
@@ -3197,19 +3197,19 @@
         <v>552299</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>518138</v>
+        <v>520972</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>584757</v>
+        <v>586452</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.444959031471951</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4174377266485436</v>
+        <v>0.4197206957143523</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4711087596502944</v>
+        <v>0.4724746505283913</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>364736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>336827</v>
+        <v>340127</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>390499</v>
+        <v>389040</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5885139829885913</v>
+        <v>0.5885139829885914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5434812951977427</v>
+        <v>0.5488061165332839</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6300829542462357</v>
+        <v>0.627728683688766</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>426</v>
@@ -3247,19 +3247,19 @@
         <v>324199</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>303804</v>
+        <v>305063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>345076</v>
+        <v>347365</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5216604866492923</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4888427395293279</v>
+        <v>0.4908680539888913</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5552521125145607</v>
+        <v>0.5589357084683159</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>736</v>
@@ -3268,19 +3268,19 @@
         <v>688936</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>656478</v>
+        <v>654783</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>723097</v>
+        <v>720263</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.555040968528049</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5288912403497054</v>
+        <v>0.5275253494716085</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5825622733514563</v>
+        <v>0.5802793042856477</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>363770</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>333985</v>
+        <v>337104</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>389405</v>
+        <v>391183</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5200504546148063</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4774686797216721</v>
+        <v>0.4819279484666689</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5566985130705296</v>
+        <v>0.559240148785228</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>662</v>
@@ -3393,19 +3393,19 @@
         <v>417529</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>397036</v>
+        <v>394403</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>438367</v>
+        <v>437494</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5676450648192991</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5397843275309018</v>
+        <v>0.5362049207692695</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5959754923296861</v>
+        <v>0.5947881929203005</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1019</v>
@@ -3414,19 +3414,19 @@
         <v>781299</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>746694</v>
+        <v>744080</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>818744</v>
+        <v>812539</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5444456761246236</v>
+        <v>0.5444456761246237</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5203314169747091</v>
+        <v>0.5185093562849648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5705388188946882</v>
+        <v>0.5662151474287961</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>335720</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>310085</v>
+        <v>308307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365505</v>
+        <v>362386</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4799495453851938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4433014869294702</v>
+        <v>0.4407598512147719</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.522531320278328</v>
+        <v>0.5180720515333311</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>477</v>
@@ -3464,19 +3464,19 @@
         <v>318017</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>297179</v>
+        <v>298052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>338510</v>
+        <v>341143</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4323549351807008</v>
+        <v>0.4323549351807009</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4040245076703141</v>
+        <v>0.4052118070796996</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4602156724690983</v>
+        <v>0.4637950792307308</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>784</v>
@@ -3485,19 +3485,19 @@
         <v>653737</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>616292</v>
+        <v>622497</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>688342</v>
+        <v>690956</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4555543238753764</v>
+        <v>0.4555543238753765</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4294611811053114</v>
+        <v>0.433784852571204</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4796685830252905</v>
+        <v>0.4814906437150354</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>345188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>323948</v>
+        <v>321567</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>370370</v>
+        <v>368760</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5674858817082882</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5325682120691549</v>
+        <v>0.5286525343548986</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6088855546156073</v>
+        <v>0.6062377810893773</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>657</v>
@@ -3610,19 +3610,19 @@
         <v>390847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>371431</v>
+        <v>372812</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>408100</v>
+        <v>410434</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6433740721017852</v>
+        <v>0.6433740721017854</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6114125649470097</v>
+        <v>0.6136870699236302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6717739256191601</v>
+        <v>0.6756156025239357</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1050</v>
@@ -3631,19 +3631,19 @@
         <v>736035</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>707789</v>
+        <v>705084</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>768872</v>
+        <v>763684</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6054056287253202</v>
+        <v>0.6054056287253201</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5821723091243431</v>
+        <v>0.579947717581625</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6324142282181519</v>
+        <v>0.6281472877341954</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>263088</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>237906</v>
+        <v>239516</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>284328</v>
+        <v>286709</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4325141182917117</v>
+        <v>0.4325141182917118</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3911144453843929</v>
+        <v>0.3937622189106227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4674317879308451</v>
+        <v>0.4713474656451019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>343</v>
@@ -3681,19 +3681,19 @@
         <v>216649</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199396</v>
+        <v>197062</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>236065</v>
+        <v>234684</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3566259278982146</v>
+        <v>0.3566259278982147</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3282260743808401</v>
+        <v>0.3243843974760641</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3885874350529904</v>
+        <v>0.3863129300763697</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>612</v>
@@ -3702,19 +3702,19 @@
         <v>479737</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>446900</v>
+        <v>452088</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>507983</v>
+        <v>510688</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3945943712746799</v>
+        <v>0.3945943712746798</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3675857717818484</v>
+        <v>0.3718527122658046</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4178276908756568</v>
+        <v>0.420052282418375</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>262520</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>244897</v>
+        <v>246848</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>279651</v>
+        <v>279598</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6448845618792046</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6015947842360155</v>
+        <v>0.606386705194885</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6869678405143134</v>
+        <v>0.6868373194856163</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>559</v>
@@ -3827,19 +3827,19 @@
         <v>293417</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>278335</v>
+        <v>279153</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>307487</v>
+        <v>307699</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6687810584991174</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6344054794769584</v>
+        <v>0.6362700856796605</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7008495736681047</v>
+        <v>0.7013332675012852</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>940</v>
@@ -3848,19 +3848,19 @@
         <v>555937</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>534865</v>
+        <v>533311</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>575747</v>
+        <v>577133</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6572799720470412</v>
+        <v>0.6572799720470414</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6323674932842818</v>
+        <v>0.6305303494785993</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.680701370668498</v>
+        <v>0.6823408296574452</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>144560</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>127429</v>
+        <v>127482</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162183</v>
+        <v>160232</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3551154381207954</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3130321594856862</v>
+        <v>0.3131626805143836</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3984052157639843</v>
+        <v>0.3936132948051145</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>267</v>
@@ -3898,19 +3898,19 @@
         <v>145317</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>131247</v>
+        <v>131035</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160399</v>
+        <v>159581</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3312189415008827</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2991504263318951</v>
+        <v>0.2986667324987147</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3655945205230415</v>
+        <v>0.3637299143203395</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>456</v>
@@ -3919,19 +3919,19 @@
         <v>289877</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>270067</v>
+        <v>268681</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>310949</v>
+        <v>312503</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3427200279529588</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.319298629331502</v>
+        <v>0.3176591703425548</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3676325067157184</v>
+        <v>0.3694696505214006</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>226615</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>211971</v>
+        <v>211944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>240415</v>
+        <v>238937</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7305493103054241</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.683341973192288</v>
+        <v>0.6832543662621443</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7750368808325581</v>
+        <v>0.7702717457641233</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>634</v>
@@ -4044,19 +4044,19 @@
         <v>330518</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>315235</v>
+        <v>314251</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>346163</v>
+        <v>343377</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7131304106876908</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6801559374117457</v>
+        <v>0.6780312760243675</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7468857769746442</v>
+        <v>0.7408757966560346</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>981</v>
@@ -4065,19 +4065,19 @@
         <v>557133</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>536030</v>
+        <v>536911</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>575683</v>
+        <v>575055</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7201143845549109</v>
+        <v>0.7201143845549111</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6928379595900533</v>
+        <v>0.6939766923354028</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7440907678820831</v>
+        <v>0.7432786832760664</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>83583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>69783</v>
+        <v>71261</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>98227</v>
+        <v>98254</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2694506896945756</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.224963119167442</v>
+        <v>0.2297282542358766</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.316658026807712</v>
+        <v>0.3167456337378557</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>245</v>
@@ -4115,19 +4115,19 @@
         <v>132957</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>117312</v>
+        <v>120098</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>148240</v>
+        <v>149224</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2868695893123092</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2531142230253558</v>
+        <v>0.2591242033439654</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3198440625882539</v>
+        <v>0.3219687239756326</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>356</v>
@@ -4136,19 +4136,19 @@
         <v>216540</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>197990</v>
+        <v>198618</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>237643</v>
+        <v>236762</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.279885615445089</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2559092321179178</v>
+        <v>0.2567213167239336</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3071620404099468</v>
+        <v>0.3060233076645971</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>1691660</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1629004</v>
+        <v>1628141</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1757002</v>
+        <v>1758829</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4792935760145582</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.461541466958131</v>
+        <v>0.4612968740448078</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4978068023987729</v>
+        <v>0.4983244264451837</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3211</v>
@@ -4261,19 +4261,19 @@
         <v>2084564</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2029767</v>
+        <v>2033412</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2136705</v>
+        <v>2142177</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5591990862763218</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5444992205222429</v>
+        <v>0.5454772121436779</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5731862402268891</v>
+        <v>0.5746539274091514</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5059</v>
@@ -4282,19 +4282,19 @@
         <v>3776224</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3687262</v>
+        <v>3690938</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3858273</v>
+        <v>3859759</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5203379198049807</v>
+        <v>0.5203379198049808</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5080794586278856</v>
+        <v>0.5085860506135231</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5316435867351338</v>
+        <v>0.5318484129088118</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>1837826</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1772484</v>
+        <v>1770657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1900482</v>
+        <v>1901345</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5207064239854419</v>
+        <v>0.5207064239854418</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.502193197601227</v>
+        <v>0.5016755735548163</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5384585330418689</v>
+        <v>0.5387031259551921</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2143</v>
@@ -4332,19 +4332,19 @@
         <v>1643204</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1591063</v>
+        <v>1585591</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1698001</v>
+        <v>1694356</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4408009137236782</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4268137597731108</v>
+        <v>0.4253460725908484</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4555007794777571</v>
+        <v>0.454522787856322</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3668</v>
@@ -4353,19 +4353,19 @@
         <v>3481030</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3398981</v>
+        <v>3397495</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3569992</v>
+        <v>3566316</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4796620801950193</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4683564132648663</v>
+        <v>0.4681515870911883</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4919205413721146</v>
+        <v>0.4914139493864768</v>
       </c>
     </row>
     <row r="27">
